--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Formelbuch_Rothlin_Walter_25_06_26.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Formelbuch_Rothlin_Walter_25_06_26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4870DE7D-3683-4F68-B217-CD17E0E531BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C4E36-4279-4220-AFEF-0F7E5A130808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5409,6 +5409,43 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -5431,43 +5468,6 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7221,6 +7221,9 @@
     <xf numFmtId="0" fontId="71" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7348,9 +7351,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12845,13 +12845,13 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13.92648887430876</c:v>
+                  <c:v>15.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-13.92648887430876</c:v>
+                  <c:v>-15.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -12869,13 +12869,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.92648887430876</c:v>
+                  <c:v>15.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-13.92648887430876</c:v>
+                  <c:v>-15.400000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12924,7 +12924,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.4278760968653934</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12939,7 +12939,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6604444311897799</c:v>
+                  <c:v>1.22514845490862E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12988,7 +12988,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13052,7 +13052,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.4278760968653934</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13067,7 +13067,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.660444431189781</c:v>
+                  <c:v>5.0000000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -42624,7 +42624,9 @@
   </sheetPr>
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -43568,10 +43570,10 @@
     </row>
     <row r="4" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="22"/>
-      <c r="C4" s="254" t="s">
+      <c r="C4" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="255"/>
+      <c r="D4" s="256"/>
       <c r="E4" s="23">
         <v>2</v>
       </c>
@@ -43619,10 +43621,10 @@
     </row>
     <row r="5" spans="2:27" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="22"/>
-      <c r="C5" s="256" t="s">
+      <c r="C5" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="257"/>
+      <c r="D5" s="258"/>
       <c r="E5" s="25">
         <v>10</v>
       </c>
@@ -43633,10 +43635,10 @@
     <row r="6" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:27" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="252" t="s">
+      <c r="C8" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="253"/>
+      <c r="D8" s="254"/>
       <c r="E8" s="4">
         <v>1</v>
       </c>
@@ -43664,10 +43666,10 @@
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C9" s="250" t="s">
+      <c r="C9" s="251" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="250"/>
+      <c r="D9" s="251"/>
       <c r="E9" s="4">
         <v>0</v>
       </c>
@@ -43761,10 +43763,10 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C10" s="251" t="s">
+      <c r="C10" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="251"/>
+      <c r="D10" s="252"/>
       <c r="E10" s="5">
         <f t="shared" ref="E10:Y10" si="1">$E$4*E9+$E$5</f>
         <v>10</v>
@@ -43859,10 +43861,10 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="251" t="s">
+      <c r="C11" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="251"/>
+      <c r="D11" s="252"/>
       <c r="E11" s="5">
         <f t="shared" ref="E11:Y11" si="2">$E$4/2 * E9^2 + $E$5*E9</f>
         <v>0</v>
@@ -44022,61 +44024,61 @@
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:19" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="266" t="str">
+      <c r="C6" s="267" t="str">
         <f>$O$8</f>
         <v>Anfangs-Geschwindigkeit</v>
       </c>
-      <c r="D6" s="267"/>
-      <c r="E6" s="270" t="str">
+      <c r="D6" s="268"/>
+      <c r="E6" s="271" t="str">
         <f>$O$9</f>
         <v>Geschwindigkeit</v>
       </c>
-      <c r="F6" s="267"/>
-      <c r="G6" s="270" t="str">
+      <c r="F6" s="268"/>
+      <c r="G6" s="271" t="str">
         <f>$O$10</f>
         <v>Strecke</v>
       </c>
-      <c r="H6" s="267"/>
-      <c r="I6" s="270" t="str">
+      <c r="H6" s="268"/>
+      <c r="I6" s="271" t="str">
         <f>$O$11</f>
         <v>Zeit</v>
       </c>
-      <c r="J6" s="267"/>
-      <c r="K6" s="270" t="str">
+      <c r="J6" s="268"/>
+      <c r="K6" s="271" t="str">
         <f>$O$12</f>
         <v>Beschleunigung</v>
       </c>
-      <c r="L6" s="271"/>
+      <c r="L6" s="272"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="268" t="str">
+      <c r="C7" s="269" t="str">
         <f>$P$8</f>
         <v>v0 [m/s]</v>
       </c>
-      <c r="D7" s="269"/>
-      <c r="E7" s="272" t="str">
+      <c r="D7" s="270"/>
+      <c r="E7" s="273" t="str">
         <f>$P$9</f>
         <v>v [m/s]</v>
       </c>
-      <c r="F7" s="269"/>
-      <c r="G7" s="272" t="str">
+      <c r="F7" s="270"/>
+      <c r="G7" s="273" t="str">
         <f>$P$10</f>
         <v>s [m]</v>
       </c>
-      <c r="H7" s="269"/>
-      <c r="I7" s="272" t="str">
+      <c r="H7" s="270"/>
+      <c r="I7" s="273" t="str">
         <f>$P$11</f>
         <v>t [s]</v>
       </c>
-      <c r="J7" s="269"/>
-      <c r="K7" s="272" t="str">
+      <c r="J7" s="270"/>
+      <c r="K7" s="273" t="str">
         <f>$P$12</f>
         <v>a [m/s2]</v>
       </c>
-      <c r="L7" s="273"/>
+      <c r="L7" s="274"/>
       <c r="O7" s="80"/>
       <c r="S7" s="63"/>
     </row>
@@ -44101,18 +44103,18 @@
         <f xml:space="preserve"> G8/I8 + K8*I8/2</f>
         <v>24</v>
       </c>
-      <c r="G8" s="274">
+      <c r="G8" s="275">
         <v>119</v>
       </c>
-      <c r="H8" s="279"/>
-      <c r="I8" s="274">
+      <c r="H8" s="280"/>
+      <c r="I8" s="275">
         <v>7</v>
       </c>
-      <c r="J8" s="279"/>
-      <c r="K8" s="274">
+      <c r="J8" s="280"/>
+      <c r="K8" s="275">
         <v>2</v>
       </c>
-      <c r="L8" s="275"/>
+      <c r="L8" s="276"/>
       <c r="N8" s="86" t="s">
         <v>104</v>
       </c>
@@ -44143,10 +44145,10 @@
         <f>E9-K9*I9</f>
         <v>10</v>
       </c>
-      <c r="E9" s="276">
+      <c r="E9" s="277">
         <v>24</v>
       </c>
-      <c r="F9" s="280"/>
+      <c r="F9" s="281"/>
       <c r="G9" s="31" t="s">
         <v>83</v>
       </c>
@@ -44154,14 +44156,14 @@
         <f>E9*I9 - K9*I9^2/2</f>
         <v>119</v>
       </c>
-      <c r="I9" s="276">
+      <c r="I9" s="277">
         <v>7</v>
       </c>
-      <c r="J9" s="280"/>
-      <c r="K9" s="276">
+      <c r="J9" s="281"/>
+      <c r="K9" s="277">
         <v>2</v>
       </c>
-      <c r="L9" s="277"/>
+      <c r="L9" s="278"/>
       <c r="N9" s="86" t="s">
         <v>104</v>
       </c>
@@ -44192,14 +44194,14 @@
         <f>SQRT(E10^2 - 2*K10*G10)</f>
         <v>10</v>
       </c>
-      <c r="E10" s="276">
+      <c r="E10" s="277">
         <v>24</v>
       </c>
-      <c r="F10" s="280"/>
-      <c r="G10" s="276">
+      <c r="F10" s="281"/>
+      <c r="G10" s="277">
         <v>119</v>
       </c>
-      <c r="H10" s="280"/>
+      <c r="H10" s="281"/>
       <c r="I10" s="31" t="s">
         <v>84</v>
       </c>
@@ -44207,10 +44209,10 @@
         <f>(E10 - SQRT(E10^2 - 2*K10*G10))/K10</f>
         <v>7</v>
       </c>
-      <c r="K10" s="276">
+      <c r="K10" s="277">
         <v>2</v>
       </c>
-      <c r="L10" s="277"/>
+      <c r="L10" s="278"/>
       <c r="N10" s="86" t="s">
         <v>104</v>
       </c>
@@ -44241,18 +44243,18 @@
         <f>2*G11/I11 - E11</f>
         <v>10</v>
       </c>
-      <c r="E11" s="276">
+      <c r="E11" s="277">
         <v>24</v>
       </c>
-      <c r="F11" s="280"/>
-      <c r="G11" s="276">
+      <c r="F11" s="281"/>
+      <c r="G11" s="277">
         <v>119</v>
       </c>
-      <c r="H11" s="280"/>
-      <c r="I11" s="276">
+      <c r="H11" s="281"/>
+      <c r="I11" s="277">
         <v>7</v>
       </c>
-      <c r="J11" s="280"/>
+      <c r="J11" s="281"/>
       <c r="K11" s="31" t="s">
         <v>85</v>
       </c>
@@ -44283,10 +44285,10 @@
       <c r="B12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="282">
+      <c r="C12" s="283">
         <v>10</v>
       </c>
-      <c r="D12" s="280"/>
+      <c r="D12" s="281"/>
       <c r="E12" s="32" t="s">
         <v>60</v>
       </c>
@@ -44301,14 +44303,14 @@
         <f>K12/2 * I12^2 + C12*I12</f>
         <v>119</v>
       </c>
-      <c r="I12" s="276">
+      <c r="I12" s="277">
         <v>7</v>
       </c>
-      <c r="J12" s="280"/>
-      <c r="K12" s="276">
+      <c r="J12" s="281"/>
+      <c r="K12" s="277">
         <v>2</v>
       </c>
-      <c r="L12" s="277"/>
+      <c r="L12" s="278"/>
       <c r="N12" s="86" t="s">
         <v>105</v>
       </c>
@@ -44335,10 +44337,10 @@
       <c r="B13" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="282">
+      <c r="C13" s="283">
         <v>10</v>
       </c>
-      <c r="D13" s="280"/>
+      <c r="D13" s="281"/>
       <c r="E13" s="31" t="s">
         <v>88</v>
       </c>
@@ -44346,10 +44348,10 @@
         <f>SQRT(C13^2 + 2*K13*G13)</f>
         <v>24</v>
       </c>
-      <c r="G13" s="276">
+      <c r="G13" s="277">
         <v>119</v>
       </c>
-      <c r="H13" s="280"/>
+      <c r="H13" s="281"/>
       <c r="I13" s="37" t="s">
         <v>62</v>
       </c>
@@ -44357,10 +44359,10 @@
         <f xml:space="preserve"> (-C13 + SQRT(C13^2 + 2*K13*G13))/K13</f>
         <v>7</v>
       </c>
-      <c r="K13" s="278">
+      <c r="K13" s="279">
         <v>2</v>
       </c>
-      <c r="L13" s="277"/>
+      <c r="L13" s="278"/>
       <c r="O13" s="80" t="s">
         <v>97</v>
       </c>
@@ -44375,10 +44377,10 @@
       <c r="B14" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="282">
+      <c r="C14" s="283">
         <v>10</v>
       </c>
-      <c r="D14" s="280"/>
+      <c r="D14" s="281"/>
       <c r="E14" s="31" t="s">
         <v>89</v>
       </c>
@@ -44386,14 +44388,14 @@
         <f>2*G14/I14 - C14</f>
         <v>24</v>
       </c>
-      <c r="G14" s="276">
+      <c r="G14" s="277">
         <v>119</v>
       </c>
-      <c r="H14" s="280"/>
-      <c r="I14" s="276">
+      <c r="H14" s="281"/>
+      <c r="I14" s="277">
         <v>7</v>
       </c>
-      <c r="J14" s="281"/>
+      <c r="J14" s="282"/>
       <c r="K14" s="87" t="s">
         <v>61</v>
       </c>
@@ -44415,14 +44417,14 @@
       <c r="B15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="282">
+      <c r="C15" s="283">
         <v>10</v>
       </c>
-      <c r="D15" s="280"/>
-      <c r="E15" s="276">
+      <c r="D15" s="281"/>
+      <c r="E15" s="277">
         <v>24</v>
       </c>
-      <c r="F15" s="280"/>
+      <c r="F15" s="281"/>
       <c r="G15" s="31" t="s">
         <v>90</v>
       </c>
@@ -44437,10 +44439,10 @@
         <f>(E15-C15)/K15</f>
         <v>7</v>
       </c>
-      <c r="K15" s="276">
+      <c r="K15" s="277">
         <v>2</v>
       </c>
-      <c r="L15" s="277"/>
+      <c r="L15" s="278"/>
       <c r="O15" s="80" t="s">
         <v>99</v>
       </c>
@@ -44455,14 +44457,14 @@
       <c r="B16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="282">
+      <c r="C16" s="283">
         <v>10</v>
       </c>
-      <c r="D16" s="280"/>
-      <c r="E16" s="276">
+      <c r="D16" s="281"/>
+      <c r="E16" s="277">
         <v>24</v>
       </c>
-      <c r="F16" s="280"/>
+      <c r="F16" s="281"/>
       <c r="G16" s="31" t="s">
         <v>91</v>
       </c>
@@ -44470,10 +44472,10 @@
         <f>(C16+E16)*I16/2</f>
         <v>119</v>
       </c>
-      <c r="I16" s="276">
+      <c r="I16" s="277">
         <v>7</v>
       </c>
-      <c r="J16" s="280"/>
+      <c r="J16" s="281"/>
       <c r="K16" s="78" t="s">
         <v>58</v>
       </c>
@@ -44495,18 +44497,18 @@
       <c r="B17" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="284">
+      <c r="C17" s="285">
         <v>10</v>
       </c>
-      <c r="D17" s="283"/>
-      <c r="E17" s="278">
+      <c r="D17" s="284"/>
+      <c r="E17" s="279">
         <v>24</v>
       </c>
-      <c r="F17" s="283"/>
-      <c r="G17" s="278">
+      <c r="F17" s="284"/>
+      <c r="G17" s="279">
         <v>119</v>
       </c>
-      <c r="H17" s="283"/>
+      <c r="H17" s="284"/>
       <c r="I17" s="83" t="s">
         <v>92</v>
       </c>
@@ -44532,58 +44534,58 @@
       <c r="B18" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="262" t="str">
+      <c r="C18" s="263" t="str">
         <f>P13</f>
         <v>ω0 [rad/s]</v>
       </c>
-      <c r="D18" s="263"/>
-      <c r="E18" s="264" t="str">
+      <c r="D18" s="264"/>
+      <c r="E18" s="265" t="str">
         <f>P14</f>
         <v>ω [rad/s]</v>
       </c>
-      <c r="F18" s="263"/>
-      <c r="G18" s="264" t="str">
+      <c r="F18" s="264"/>
+      <c r="G18" s="265" t="str">
         <f>P15</f>
         <v>φ [rad]</v>
       </c>
-      <c r="H18" s="263"/>
-      <c r="I18" s="264" t="str">
+      <c r="H18" s="264"/>
+      <c r="I18" s="265" t="str">
         <f>P16</f>
         <v>t [s]</v>
       </c>
-      <c r="J18" s="263"/>
-      <c r="K18" s="264" t="str">
+      <c r="J18" s="264"/>
+      <c r="K18" s="265" t="str">
         <f>P17</f>
         <v>α [rad/s2]</v>
       </c>
-      <c r="L18" s="265"/>
+      <c r="L18" s="266"/>
     </row>
     <row r="19" spans="1:16" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="258" t="str">
+      <c r="C19" s="259" t="str">
         <f>O13</f>
         <v>Anfangs-Winkelgeschwindigkeit</v>
       </c>
-      <c r="D19" s="259"/>
-      <c r="E19" s="260" t="str">
+      <c r="D19" s="260"/>
+      <c r="E19" s="261" t="str">
         <f>O14</f>
         <v>Winkelgeschwindigkeit</v>
       </c>
-      <c r="F19" s="259"/>
-      <c r="G19" s="260" t="str">
+      <c r="F19" s="260"/>
+      <c r="G19" s="261" t="str">
         <f>O15</f>
         <v>Winkel</v>
       </c>
-      <c r="H19" s="259"/>
-      <c r="I19" s="260" t="str">
+      <c r="H19" s="260"/>
+      <c r="I19" s="261" t="str">
         <f>O16</f>
         <v>Zeit</v>
       </c>
-      <c r="J19" s="259"/>
-      <c r="K19" s="260" t="str">
+      <c r="J19" s="260"/>
+      <c r="K19" s="261" t="str">
         <f>O17</f>
         <v>Winkelbeschleunigung</v>
       </c>
-      <c r="L19" s="261"/>
+      <c r="L19" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -44729,10 +44731,10 @@
       </c>
     </row>
     <row r="7" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="R7" s="251" t="s">
+      <c r="R7" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="S7" s="251"/>
+      <c r="S7" s="252"/>
       <c r="T7" s="5">
         <f>IF(ABS(T5)&gt;ABS(T6),T5,T6)</f>
         <v>-1</v>
@@ -44753,10 +44755,10 @@
       </c>
     </row>
     <row r="11" spans="3:51" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="285"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="285"/>
+      <c r="C11" s="286"/>
+      <c r="D11" s="286"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
       <c r="L11" s="43" t="s">
@@ -44805,12 +44807,12 @@
       <c r="AY11" s="74"/>
     </row>
     <row r="12" spans="3:51" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="286" t="s">
+      <c r="C12" s="287" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="286"/>
-      <c r="E12" s="286"/>
-      <c r="F12" s="286"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="J12" s="57" t="s">
@@ -44819,7 +44821,7 @@
       <c r="K12" s="38">
         <v>270</v>
       </c>
-      <c r="L12" s="287" t="s">
+      <c r="L12" s="288" t="s">
         <v>71</v>
       </c>
       <c r="M12" s="38">
@@ -45000,7 +45002,7 @@
         <f>PI()*K12/180</f>
         <v>4.7123889803846897</v>
       </c>
-      <c r="L13" s="288"/>
+      <c r="L13" s="289"/>
       <c r="M13" s="64">
         <f>PI()*M12/180</f>
         <v>0</v>
@@ -46260,10 +46262,10 @@
       <c r="L7" t="s">
         <v>323</v>
       </c>
-      <c r="S7" s="251" t="s">
+      <c r="S7" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="251"/>
+      <c r="T7" s="252"/>
       <c r="U7" s="5">
         <f>IF(ABS(U5)&gt;ABS(U6),U5,U6)</f>
         <v>1.2741327090615151E-14</v>
@@ -46298,11 +46300,11 @@
       </c>
     </row>
     <row r="11" spans="3:52" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="285"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="285"/>
-      <c r="G11" s="285"/>
+      <c r="C11" s="286"/>
+      <c r="D11" s="286"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="286"/>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
       <c r="M11" s="43" t="s">
@@ -46351,13 +46353,13 @@
       <c r="AZ11" s="74"/>
     </row>
     <row r="12" spans="3:52" s="34" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="C12" s="286" t="s">
+      <c r="C12" s="287" t="s">
         <v>330</v>
       </c>
-      <c r="D12" s="286"/>
-      <c r="E12" s="286"/>
-      <c r="F12" s="286"/>
-      <c r="G12" s="286"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
       <c r="K12" s="57" t="s">
@@ -46366,7 +46368,7 @@
       <c r="L12" s="38">
         <v>270</v>
       </c>
-      <c r="M12" s="287" t="s">
+      <c r="M12" s="288" t="s">
         <v>71</v>
       </c>
       <c r="N12" s="38">
@@ -46550,7 +46552,7 @@
         <f>PI()*L12/180</f>
         <v>4.7123889803846897</v>
       </c>
-      <c r="M13" s="288"/>
+      <c r="M13" s="289"/>
       <c r="N13" s="64">
         <f>PI()*N12/180</f>
         <v>0</v>
@@ -47821,10 +47823,10 @@
       </c>
     </row>
     <row r="7" spans="3:51" x14ac:dyDescent="0.35">
-      <c r="R7" s="251" t="s">
+      <c r="R7" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="S7" s="251"/>
+      <c r="S7" s="252"/>
       <c r="T7" s="5">
         <f>IF(ABS(T5)&gt;ABS(T6),T5,T6)</f>
         <v>20</v>
@@ -47846,10 +47848,10 @@
       </c>
     </row>
     <row r="11" spans="3:51" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="285"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="285"/>
+      <c r="C11" s="286"/>
+      <c r="D11" s="286"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
       <c r="L11" s="43" t="s">
@@ -47898,12 +47900,12 @@
       <c r="AY11" s="74"/>
     </row>
     <row r="12" spans="3:51" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="286" t="s">
+      <c r="C12" s="287" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="286"/>
-      <c r="E12" s="286"/>
-      <c r="F12" s="286"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="J12" s="57" t="s">
@@ -47912,7 +47914,7 @@
       <c r="K12" s="38">
         <v>210</v>
       </c>
-      <c r="L12" s="287" t="s">
+      <c r="L12" s="288" t="s">
         <v>71</v>
       </c>
       <c r="M12" s="38">
@@ -48093,7 +48095,7 @@
         <f>PI()*K12/180</f>
         <v>3.6651914291880923</v>
       </c>
-      <c r="L13" s="288"/>
+      <c r="L13" s="289"/>
       <c r="M13" s="64">
         <f>PI()*M12/180</f>
         <v>0</v>
@@ -51414,9 +51416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951D6AE-9875-4C47-A8F2-B20D10B6BD57}">
   <dimension ref="C1:AS11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX16" sqref="AX16"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -51493,10 +51493,10 @@
     </row>
     <row r="7" spans="3:45" x14ac:dyDescent="0.35">
       <c r="C7" s="5"/>
-      <c r="D7" s="289" t="s">
+      <c r="D7" s="245" t="s">
         <v>312</v>
       </c>
-      <c r="E7" s="289">
+      <c r="E7" s="245">
         <v>0</v>
       </c>
       <c r="F7" s="96">
@@ -53853,39 +53853,39 @@
       <c r="T8" s="5"/>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="C12" s="246" t="s">
+      <c r="C12" s="247" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
       <c r="H12" s="75"/>
-      <c r="I12" s="246" t="s">
+      <c r="I12" s="247" t="s">
         <v>231</v>
       </c>
-      <c r="J12" s="246"/>
-      <c r="K12" s="246" t="s">
+      <c r="J12" s="247"/>
+      <c r="K12" s="247" t="s">
         <v>226</v>
       </c>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246" t="s">
+      <c r="L12" s="247"/>
+      <c r="M12" s="247" t="s">
         <v>232</v>
       </c>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="245" t="s">
+      <c r="N12" s="247"/>
+      <c r="O12" s="247"/>
+      <c r="P12" s="246" t="s">
         <v>243</v>
       </c>
-      <c r="Q12" s="245"/>
-      <c r="R12" s="245"/>
-      <c r="S12" s="245"/>
-      <c r="T12" s="245" t="s">
+      <c r="Q12" s="246"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="246"/>
+      <c r="T12" s="246" t="s">
         <v>275</v>
       </c>
-      <c r="U12" s="245"/>
-      <c r="V12" s="245"/>
-      <c r="W12" s="245"/>
+      <c r="U12" s="246"/>
+      <c r="V12" s="246"/>
+      <c r="W12" s="246"/>
     </row>
     <row r="13" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C13" s="120" t="s">
@@ -54512,9 +54512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89928866-E643-498C-AE8F-3008A8B56B76}">
   <dimension ref="B1:U46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -54623,29 +54621,29 @@
     <row r="11" spans="2:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B13" s="247" t="s">
+      <c r="B13" s="248" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="L13" s="247" t="s">
+      <c r="C13" s="250"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="250"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="250"/>
+      <c r="I13" s="250"/>
+      <c r="L13" s="248" t="s">
         <v>439</v>
       </c>
-      <c r="M13" s="248"/>
-      <c r="N13" s="248"/>
-      <c r="O13" s="248"/>
-      <c r="Q13" s="247" t="s">
+      <c r="M13" s="249"/>
+      <c r="N13" s="249"/>
+      <c r="O13" s="249"/>
+      <c r="Q13" s="248" t="s">
         <v>244</v>
       </c>
-      <c r="R13" s="248"/>
-      <c r="S13" s="248"/>
-      <c r="T13" s="248"/>
-      <c r="U13" s="248"/>
+      <c r="R13" s="249"/>
+      <c r="S13" s="249"/>
+      <c r="T13" s="249"/>
+      <c r="U13" s="249"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="234" t="s">
@@ -54701,14 +54699,14 @@
         <v>10</v>
       </c>
       <c r="D15" s="94">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E15" s="94" t="s">
         <v>215</v>
       </c>
       <c r="F15" s="232">
         <f>IF(E15=M7,D15,IF(D8=M6,D15*PI()/180,"Unknown"))</f>
-        <v>2.2689280275926285</v>
+        <v>3.1415926535897931</v>
       </c>
       <c r="G15" s="93" t="str">
         <f>M7</f>
@@ -54716,41 +54714,41 @@
       </c>
       <c r="H15" s="232">
         <f>C15*COS(F15)</f>
-        <v>-6.4278760968653934</v>
+        <v>-10</v>
       </c>
       <c r="I15" s="232">
         <f>C15*SIN(F15)</f>
-        <v>7.6604444311897799</v>
+        <v>1.22514845490862E-15</v>
       </c>
       <c r="L15" s="240">
         <v>0</v>
       </c>
       <c r="M15" s="240">
         <f>H15</f>
-        <v>-6.4278760968653934</v>
+        <v>-10</v>
       </c>
       <c r="N15" s="240">
         <v>0</v>
       </c>
       <c r="O15" s="240">
         <f>I15</f>
-        <v>7.6604444311897799</v>
+        <v>1.22514845490862E-15</v>
       </c>
       <c r="P15" s="241"/>
       <c r="Q15" s="242">
         <f>MAX(ABS(O15),ABS(M16),ABS(O16),ABS(M15),ABS(M17),ABS(O17))</f>
-        <v>12.660444431189781</v>
+        <v>14</v>
       </c>
       <c r="R15" s="240">
         <f>Q16</f>
-        <v>13.92648887430876</v>
+        <v>15.400000000000002</v>
       </c>
       <c r="S15" s="240">
         <v>0</v>
       </c>
       <c r="T15" s="240">
         <f>-R15</f>
-        <v>-13.92648887430876</v>
+        <v>-15.400000000000002</v>
       </c>
       <c r="U15" s="240">
         <v>0</v>
@@ -54762,11 +54760,11 @@
       </c>
       <c r="C16" s="232">
         <f>SQRT(H16^2+I16^2)</f>
-        <v>5.0990195135927845</v>
+        <v>6.4031242374328485</v>
       </c>
       <c r="D16" s="232">
         <f>F16*180/PI()</f>
-        <v>78.690067525979785</v>
+        <v>128.65980825409008</v>
       </c>
       <c r="E16" s="93" t="str">
         <f>M6</f>
@@ -54774,14 +54772,14 @@
       </c>
       <c r="F16" s="232">
         <f>ATAN2(H16,I16)</f>
-        <v>1.3734007669450159</v>
+        <v>2.245537269018449</v>
       </c>
       <c r="G16" s="93" t="str">
         <f>M7</f>
         <v>rad</v>
       </c>
       <c r="H16" s="94">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="I16" s="94">
         <v>5</v>
@@ -54791,7 +54789,7 @@
       </c>
       <c r="M16" s="240">
         <f>H16</f>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="N16" s="240">
         <v>0</v>
@@ -54803,34 +54801,34 @@
       <c r="P16" s="241"/>
       <c r="Q16" s="242">
         <f>Q15*1.1</f>
-        <v>13.92648887430876</v>
+        <v>15.400000000000002</v>
       </c>
       <c r="R16" s="240">
         <v>0</v>
       </c>
       <c r="S16" s="240">
         <f>R15</f>
-        <v>13.92648887430876</v>
+        <v>15.400000000000002</v>
       </c>
       <c r="T16" s="240">
         <v>0</v>
       </c>
       <c r="U16" s="240">
         <f>T15</f>
-        <v>-13.92648887430876</v>
+        <v>-15.400000000000002</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B17" s="244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C17" s="232">
         <f>SQRT(H17^2+I17^2)</f>
-        <v>13.774929840771133</v>
+        <v>14.866068747318506</v>
       </c>
       <c r="D17" s="232">
         <f>F17*180/PI()</f>
-        <v>113.20612717422607</v>
+        <v>160.34617594194668</v>
       </c>
       <c r="E17" s="93" t="str">
         <f>E16</f>
@@ -54838,7 +54836,7 @@
       </c>
       <c r="F17" s="232">
         <f>ATAN2(H17,I17)</f>
-        <v>1.9758196526216694</v>
+        <v>2.7985687131690895</v>
       </c>
       <c r="G17" s="93" t="str">
         <f>G16</f>
@@ -54846,38 +54844,38 @@
       </c>
       <c r="H17" s="232">
         <f>H16+H15</f>
-        <v>-5.4278760968653934</v>
+        <v>-14</v>
       </c>
       <c r="I17" s="232">
         <f>I16+I15</f>
-        <v>12.660444431189781</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="L17" s="240">
         <v>0</v>
       </c>
       <c r="M17" s="240">
         <f>H17</f>
-        <v>-5.4278760968653934</v>
+        <v>-14</v>
       </c>
       <c r="N17" s="240">
         <v>0</v>
       </c>
       <c r="O17" s="240">
         <f>I17</f>
-        <v>12.660444431189781</v>
+        <v>5.0000000000000009</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B18" s="19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C18" s="96">
         <f>C16*C15</f>
-        <v>50.990195135927848</v>
+        <v>64.031242374328485</v>
       </c>
       <c r="D18" s="232">
         <f>D16+D15</f>
-        <v>208.69006752597977</v>
+        <v>308.65980825409008</v>
       </c>
       <c r="E18" s="93" t="str">
         <f>E17</f>
@@ -54885,17 +54883,19 @@
       </c>
       <c r="F18" s="232">
         <f>F15+F16</f>
-        <v>3.6423287945376446</v>
+        <v>5.3871299226082421</v>
       </c>
       <c r="G18" s="93" t="str">
         <f>G17</f>
         <v>rad</v>
       </c>
       <c r="H18" s="232">
-        <v>0</v>
+        <f>C18*COS(F18)</f>
+        <v>39.999999999999979</v>
       </c>
       <c r="I18" s="232">
-        <v>5</v>
+        <f>C18*SIN(F18)</f>
+        <v>-50.000000000000014</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="116" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -54933,7 +54933,7 @@
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 D6 D8" xr:uid="{3E8D84A8-7919-4823-9635-E5BE173BBAF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 D8" xr:uid="{3E8D84A8-7919-4823-9635-E5BE173BBAF1}">
       <formula1>$M$6:$M$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -54979,7 +54979,7 @@
       </c>
       <c r="J2" s="111">
         <f ca="1">NOW()</f>
-        <v>45834.341261574074</v>
+        <v>45835.310578935183</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.6">
